--- a/report/report_jiejian.xlsx
+++ b/report/report_jiejian.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>模块</t>
   </si>
@@ -209,6 +209,9 @@
     <t>登录成功且进入一窗受理</t>
   </si>
   <si>
+    <t>fail</t>
+  </si>
+  <si>
     <t>测试模块</t>
   </si>
   <si>
@@ -243,6 +246,9 @@
   </si>
   <si>
     <t>{"len":1}</t>
+  </si>
+  <si>
+    <t>用例步骤执行失败</t>
   </si>
 </sst>
 </file>
@@ -272,6 +278,127 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color indexed="8"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
@@ -280,15 +407,6 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -296,122 +414,10 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color indexed="8"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -428,19 +434,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,150 +608,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -603,12 +615,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,6 +625,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -637,11 +687,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,21 +717,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -684,41 +725,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -727,10 +733,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -739,7 +745,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="12" numFmtId="0">
@@ -751,121 +757,121 @@
     <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="4" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="18" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="5" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="5" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="24" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="3" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="18" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="9" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="30" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -949,6 +955,36 @@
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="857250" cy="857250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1583,7 +1619,7 @@
         <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1623,25 +1659,25 @@
         <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row customHeight="1" ht="18" r="2" s="1" spans="1:8">
@@ -1655,11 +1691,11 @@
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="5" t="n"/>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1677,7 +1713,7 @@
       </c>
       <c r="E3" s="5" t="n"/>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1694,7 +1730,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1708,10 +1744,10 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
         <v>71</v>
-      </c>
-      <c r="G5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1725,7 +1761,7 @@
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1739,7 +1775,7 @@
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1753,7 +1789,7 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1767,10 +1803,10 @@
         <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1784,10 +1820,10 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1801,10 +1837,10 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="80.09999999999999" r="12" s="1" spans="1:8">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1815,11 +1851,11 @@
         <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" s="6" t="n"/>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1832,11 +1868,9 @@
       <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="G13" t="s">
-        <v>70</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>